--- a/protocol template.xlsx
+++ b/protocol template.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+  <si>
+    <t>* sample protocol file</t>
+  </si>
   <si>
     <t xml:space="preserve">* </t>
   </si>
@@ -25,15 +28,6 @@
     <t>line that begins with "*" is regarded as comment, and will be ignored</t>
   </si>
   <si>
-    <t>* から始まる行はコメント行として無視する</t>
-  </si>
-  <si>
-    <t>1列目は必ずTrial</t>
-  </si>
-  <si>
-    <t>プロトコールを記述している部分より下および右には何も書かない</t>
-  </si>
-  <si>
     <t>Trial</t>
   </si>
   <si>
@@ -49,61 +43,23 @@
     <t>Start Area Position X</t>
   </si>
   <si>
-    <t xml:space="preserve">* </t>
+    <t>The Column A must be "Trial"</t>
     <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>sample protocol file</t>
   </si>
   <si>
     <t>*</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>PoMLab use parameters specified in config file as default</t>
+    <t>Experimental parameters should be set in Column B, C, …</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t xml:space="preserve">By using a protocol file, the parameters can be overwritten. </t>
+    <t>The fied names must match those used in config.csv</t>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Configで指定されたパラメータから、試行ごとに変更したいものだけをprotocolで指定</t>
-    <rPh sb="7" eb="9">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>実験には支障ありませんが、UTF8で保存しないと、日本語は文字化けします。</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シショウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>モジバ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Save protocol files as text file</t>
+    <t>Is Mirror Reversed</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -273,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +407,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -698,8 +666,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,223 +1018,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="6" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>80</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>90</v>
-      </c>
-      <c r="C20">
-        <v>30</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>70</v>
-      </c>
-      <c r="C21">
-        <v>30</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>110</v>
-      </c>
-      <c r="C22">
-        <v>30</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F15">
         <v>0</v>
       </c>
     </row>
